--- a/log.xlsx
+++ b/log.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tool\python_test\Trados-log-shaping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACBF1C0-28B3-40CF-A844-34E09415DDFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82BFADE-3EE5-407A-B465-6E76D9EDA738}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="555" windowWidth="23190" windowHeight="14760" xr2:uid="{22230846-1F3A-4347-91D1-BA6DB03508C0}"/>
+    <workbookView xWindow="1680" yWindow="105" windowWidth="23295" windowHeight="14595" activeTab="1" xr2:uid="{22230846-1F3A-4347-91D1-BA6DB03508C0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Characters" sheetId="1" r:id="rId1"/>
+    <sheet name="Words" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>file</t>
   </si>
@@ -73,6 +74,10 @@
   </si>
   <si>
     <t>total (characters)</t>
+  </si>
+  <si>
+    <t>total (words)</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -485,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A56C3B-E675-4DE7-860B-5A4D35CC8BE0}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -915,4 +920,440 @@
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2E898F-CFEC-49BC-99FE-373434158CB1}">
+  <dimension ref="A1:M26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="59.875" style="4" customWidth="1"/>
+    <col min="2" max="13" width="16.375" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>